--- a/Data/Input/With_observations/Avala/Avala_observations.xlsx
+++ b/Data/Input/With_observations/Avala/Avala_observations.xlsx
@@ -1,21 +1,168 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Points" sheetId="2" r:id="rId1"/>
+    <sheet name="Observations" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>HzD</t>
+  </si>
+  <si>
+    <t>HzM</t>
+  </si>
+  <si>
+    <t>HzS</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>VzD</t>
+  </si>
+  <si>
+    <t>VzM</t>
+  </si>
+  <si>
+    <t>VzS</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>FIX_X</t>
+  </si>
+  <si>
+    <t>FIX_Y</t>
+  </si>
+  <si>
+    <t>Point_object</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,10 +199,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -63,6 +213,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,6 +296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,6 +331,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,70 +507,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>61926.45</v>
+      </c>
+      <c r="D2">
+        <v>50239.19</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>61970.93</v>
+      </c>
+      <c r="D3">
+        <v>50246.83</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>62007.96</v>
+      </c>
+      <c r="D4">
+        <v>50295.18</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>61990.13</v>
+      </c>
+      <c r="D5">
+        <v>50336.08</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>61923.74</v>
+      </c>
+      <c r="D6">
+        <v>50333.85</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>61902.91</v>
+      </c>
+      <c r="D7">
+        <v>50294.62</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>61953.88</v>
+      </c>
+      <c r="D8">
+        <v>50288.29</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>From</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>To</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HzD</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HzM</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HzS</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>VzD</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>VzM</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>VzS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>M10</t>
-        </is>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2">
         <v>38</v>
@@ -422,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>24.50000000000841</v>
+        <v>24.500000000008409</v>
       </c>
       <c r="F2">
-        <v>17.6795</v>
+        <v>17.679500000000001</v>
       </c>
       <c r="G2">
         <v>91</v>
@@ -434,19 +776,15 @@
         <v>34</v>
       </c>
       <c r="I2">
-        <v>5.999999999980901</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
+        <v>5.9999999999809006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3">
         <v>47</v>
@@ -458,7 +796,7 @@
         <v>16.83333333333735</v>
       </c>
       <c r="F3">
-        <v>60.89083333333333</v>
+        <v>60.890833333333333</v>
       </c>
       <c r="G3">
         <v>89</v>
@@ -470,16 +808,12 @@
         <v>34.66666666666697</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4">
         <v>59</v>
@@ -488,10 +822,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>51.50000000002137</v>
+        <v>51.500000000021373</v>
       </c>
       <c r="F4">
-        <v>55.9665</v>
+        <v>55.966500000000003</v>
       </c>
       <c r="G4">
         <v>88</v>
@@ -500,19 +834,15 @@
         <v>53</v>
       </c>
       <c r="I4">
-        <v>57.00000000002319</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
+        <v>57.000000000023192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5">
         <v>77</v>
@@ -521,10 +851,10 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>58.50000000006276</v>
+        <v>58.500000000062762</v>
       </c>
       <c r="F5">
-        <v>38.09</v>
+        <v>38.090000000000003</v>
       </c>
       <c r="G5">
         <v>84</v>
@@ -533,19 +863,15 @@
         <v>39</v>
       </c>
       <c r="I5">
-        <v>31.50000000009413</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M12</t>
-        </is>
+        <v>31.500000000094129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6">
         <v>83</v>
@@ -554,7 +880,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>32.50000000004206</v>
+        <v>32.500000000042057</v>
       </c>
       <c r="G6">
         <v>82</v>
@@ -566,16 +892,12 @@
         <v>10.50000000002456</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7">
         <v>92</v>
@@ -584,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>47.75000000003502</v>
+        <v>47.750000000035023</v>
       </c>
       <c r="G7">
         <v>79</v>
@@ -596,16 +918,12 @@
         <v>12.24999999995816</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8">
         <v>92</v>
@@ -614,7 +932,7 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>59.75000000002751</v>
+        <v>59.750000000027512</v>
       </c>
       <c r="G8">
         <v>79</v>
@@ -623,19 +941,15 @@
         <v>11</v>
       </c>
       <c r="I8">
-        <v>26.0000000000241</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
+        <v>26.000000000024102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
       <c r="C9">
         <v>92</v>
@@ -644,7 +958,7 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>43.24999999992656</v>
+        <v>43.249999999926558</v>
       </c>
       <c r="G9">
         <v>79</v>
@@ -653,19 +967,15 @@
         <v>15</v>
       </c>
       <c r="I9">
-        <v>20.49999999994725</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
+        <v>20.499999999947249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
       <c r="C10">
         <v>101</v>
@@ -674,10 +984,10 @@
         <v>37</v>
       </c>
       <c r="E10">
-        <v>3.000000000024556</v>
+        <v>3.0000000000245559</v>
       </c>
       <c r="F10">
-        <v>24.3665</v>
+        <v>24.366499999999998</v>
       </c>
       <c r="G10">
         <v>82</v>
@@ -686,19 +996,15 @@
         <v>13</v>
       </c>
       <c r="I10">
-        <v>39.500000000005</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>M11</t>
-        </is>
+        <v>39.500000000005002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
       <c r="C11">
         <v>121</v>
@@ -707,10 +1013,10 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>23.99999999997135</v>
+        <v>23.999999999971351</v>
       </c>
       <c r="F11">
-        <v>31.8055</v>
+        <v>31.805499999999999</v>
       </c>
       <c r="G11">
         <v>83</v>
@@ -719,19 +1025,15 @@
         <v>59</v>
       </c>
       <c r="I11">
-        <v>3.410605131648481e-012</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
+        <v>3.4106051316484809E-12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
       </c>
       <c r="C12">
         <v>124</v>
@@ -740,10 +1042,10 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>33.33333333332917</v>
+        <v>33.333333333329172</v>
       </c>
       <c r="F12">
-        <v>92.67916666666667</v>
+        <v>92.679166666666674</v>
       </c>
       <c r="G12">
         <v>89</v>
@@ -755,16 +1057,12 @@
         <v>18.33333333328142</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
       <c r="C13">
         <v>166</v>
@@ -773,10 +1071,10 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>41.49999999988722</v>
+        <v>41.499999999887223</v>
       </c>
       <c r="F13">
-        <v>44.66166666666667</v>
+        <v>44.661666666666669</v>
       </c>
       <c r="G13">
         <v>88</v>
@@ -785,19 +1083,15 @@
         <v>4</v>
       </c>
       <c r="I13">
-        <v>54.33333333332712</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>M9</t>
-        </is>
+        <v>54.333333333327118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
       <c r="C14">
         <v>201</v>
@@ -821,16 +1115,12 @@
         <v>32.50000000007276</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>M8</t>
-        </is>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -842,7 +1132,7 @@
         <v>3.500000000016108</v>
       </c>
       <c r="F15">
-        <v>57.31650000000001</v>
+        <v>57.316500000000012</v>
       </c>
       <c r="G15">
         <v>91</v>
@@ -851,19 +1141,15 @@
         <v>59</v>
       </c>
       <c r="I15">
-        <v>58.50000000000136</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
+        <v>58.500000000001357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -872,10 +1158,10 @@
         <v>40</v>
       </c>
       <c r="E16">
-        <v>48.49999999999426</v>
+        <v>48.499999999994259</v>
       </c>
       <c r="F16">
-        <v>40.6675</v>
+        <v>40.667499999999997</v>
       </c>
       <c r="G16">
         <v>87</v>
@@ -884,19 +1170,15 @@
         <v>29</v>
       </c>
       <c r="I16">
-        <v>34.99999999995453</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>M11</t>
-        </is>
+        <v>34.999999999954532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
       </c>
       <c r="C17">
         <v>31</v>
@@ -908,7 +1190,7 @@
         <v>10.00000000001649</v>
       </c>
       <c r="F17">
-        <v>31.5725</v>
+        <v>31.572500000000002</v>
       </c>
       <c r="G17">
         <v>86</v>
@@ -917,19 +1199,15 @@
         <v>42</v>
       </c>
       <c r="I17">
-        <v>1.999999999940201</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
+        <v>1.9999999999402009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
       <c r="C18">
         <v>46</v>
@@ -938,7 +1216,7 @@
         <v>48</v>
       </c>
       <c r="E18">
-        <v>47.99999999999727</v>
+        <v>47.999999999997272</v>
       </c>
       <c r="G18">
         <v>81</v>
@@ -947,19 +1225,15 @@
         <v>37</v>
       </c>
       <c r="I18">
-        <v>27.00000000000273</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
+        <v>27.000000000002728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
       </c>
       <c r="C19">
         <v>46</v>
@@ -968,7 +1242,7 @@
         <v>49</v>
       </c>
       <c r="E19">
-        <v>33.24999999999875</v>
+        <v>33.249999999998749</v>
       </c>
       <c r="G19">
         <v>81</v>
@@ -980,16 +1254,12 @@
         <v>43.74999999996362</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
       </c>
       <c r="C20">
         <v>47</v>
@@ -998,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <v>3.250000000000455</v>
+        <v>3.2500000000004552</v>
       </c>
       <c r="G20">
         <v>81</v>
@@ -1007,19 +1277,15 @@
         <v>36</v>
       </c>
       <c r="I20">
-        <v>27.49999999998863</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>M13</t>
-        </is>
+        <v>27.499999999988631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
       </c>
       <c r="C21">
         <v>65</v>
@@ -1043,16 +1309,12 @@
         <v>20.00000000003638</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
       </c>
       <c r="C22">
         <v>74</v>
@@ -1061,10 +1323,10 @@
         <v>18</v>
       </c>
       <c r="E22">
-        <v>52.16666666665446</v>
+        <v>52.166666666654457</v>
       </c>
       <c r="F22">
-        <v>96.6925</v>
+        <v>96.692499999999995</v>
       </c>
       <c r="G22">
         <v>87</v>
@@ -1073,19 +1335,15 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>26.66666666668789</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>M14</t>
-        </is>
+        <v>26.666666666687892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
       </c>
       <c r="C23">
         <v>95</v>
@@ -1094,7 +1352,7 @@
         <v>48</v>
       </c>
       <c r="E23">
-        <v>51.50000000002819</v>
+        <v>51.500000000028187</v>
       </c>
       <c r="F23">
         <v>31.145</v>
@@ -1106,19 +1364,15 @@
         <v>56</v>
       </c>
       <c r="I23">
-        <v>43.49999999997408</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
+        <v>43.499999999974079</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
       </c>
       <c r="C24">
         <v>97</v>
@@ -1127,10 +1381,10 @@
         <v>48</v>
       </c>
       <c r="E24">
-        <v>35.83333333331325</v>
+        <v>35.833333333313249</v>
       </c>
       <c r="F24">
-        <v>66.453</v>
+        <v>66.453000000000003</v>
       </c>
       <c r="G24">
         <v>91</v>
@@ -1139,19 +1393,15 @@
         <v>14</v>
       </c>
       <c r="I24">
-        <v>42.33333333335509</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>M9</t>
-        </is>
+        <v>42.333333333355093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
       </c>
       <c r="C25">
         <v>331</v>
@@ -1160,10 +1410,10 @@
         <v>21</v>
       </c>
       <c r="E25">
-        <v>14.50000000003456</v>
+        <v>14.500000000034561</v>
       </c>
       <c r="F25">
-        <v>33.681</v>
+        <v>33.680999999999997</v>
       </c>
       <c r="G25">
         <v>92</v>
@@ -1172,19 +1422,15 @@
         <v>37</v>
       </c>
       <c r="I25">
-        <v>24.50000000003911</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
+        <v>24.500000000039108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
       </c>
       <c r="C26">
         <v>346</v>
@@ -1193,10 +1439,10 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <v>45.16666666666424</v>
+        <v>45.166666666664241</v>
       </c>
       <c r="F26">
-        <v>44.661</v>
+        <v>44.661000000000001</v>
       </c>
       <c r="G26">
         <v>91</v>
@@ -1205,19 +1451,15 @@
         <v>58</v>
       </c>
       <c r="I26">
-        <v>39.33333333341238</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
+        <v>39.333333333412376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
       </c>
       <c r="C27">
         <v>63</v>
@@ -1226,10 +1468,10 @@
         <v>23</v>
       </c>
       <c r="E27">
-        <v>53.66666666666163</v>
+        <v>53.666666666661627</v>
       </c>
       <c r="F27">
-        <v>66.45233333333333</v>
+        <v>66.452333333333328</v>
       </c>
       <c r="G27">
         <v>88</v>
@@ -1241,16 +1483,12 @@
         <v>15.66666666665356</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>M14</t>
-        </is>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
       </c>
       <c r="C28">
         <v>65</v>
@@ -1259,10 +1497,10 @@
         <v>9</v>
       </c>
       <c r="E28">
-        <v>17.00000000003911</v>
+        <v>17.000000000039108</v>
       </c>
       <c r="F28">
-        <v>35.3605</v>
+        <v>35.360500000000002</v>
       </c>
       <c r="G28">
         <v>87</v>
@@ -1271,19 +1509,15 @@
         <v>39</v>
       </c>
       <c r="I28">
-        <v>39.50000000001865</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>M17</t>
-        </is>
+        <v>39.500000000018652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
       </c>
       <c r="C29">
         <v>78</v>
@@ -1292,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="E29">
-        <v>39.99999999998408</v>
+        <v>39.999999999984077</v>
       </c>
       <c r="F29">
         <v>63.058</v>
@@ -1307,16 +1541,12 @@
         <v>29.5000000000482</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
       </c>
       <c r="C30">
         <v>89</v>
@@ -1325,10 +1555,10 @@
         <v>59</v>
       </c>
       <c r="E30">
-        <v>57.49999999998522</v>
+        <v>57.499999999985221</v>
       </c>
       <c r="F30">
-        <v>92.67833333333333</v>
+        <v>92.678333333333327</v>
       </c>
       <c r="G30">
         <v>90</v>
@@ -1340,16 +1570,12 @@
         <v>40.00000000001819</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>M11</t>
-        </is>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
       </c>
       <c r="C31">
         <v>91</v>
@@ -1358,10 +1584,10 @@
         <v>36</v>
       </c>
       <c r="E31">
-        <v>47.50000000010687</v>
+        <v>47.500000000106873</v>
       </c>
       <c r="F31">
-        <v>61.209</v>
+        <v>61.209000000000003</v>
       </c>
       <c r="G31">
         <v>86</v>
@@ -1370,19 +1596,15 @@
         <v>58</v>
       </c>
       <c r="I31">
-        <v>37.49999999997272</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
+        <v>37.499999999972722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
       </c>
       <c r="C32">
         <v>121</v>
@@ -1391,7 +1613,7 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>33.49999999997294</v>
+        <v>33.499999999972943</v>
       </c>
       <c r="G32">
         <v>79</v>
@@ -1403,16 +1625,12 @@
         <v>19.25000000004729</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
       </c>
       <c r="C33">
         <v>121</v>
@@ -1421,7 +1639,7 @@
         <v>54</v>
       </c>
       <c r="E33">
-        <v>33.24999999990496</v>
+        <v>33.249999999904958</v>
       </c>
       <c r="G33">
         <v>79</v>
@@ -1430,19 +1648,15 @@
         <v>20</v>
       </c>
       <c r="I33">
-        <v>28.50000000005935</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
+        <v>28.500000000059352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
       </c>
       <c r="C34">
         <v>121</v>
@@ -1451,7 +1665,7 @@
         <v>57</v>
       </c>
       <c r="E34">
-        <v>9.249999999967713</v>
+        <v>9.2499999999677129</v>
       </c>
       <c r="G34">
         <v>79</v>
@@ -1460,19 +1674,15 @@
         <v>23</v>
       </c>
       <c r="I34">
-        <v>2.499999999936335</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>M7</t>
-        </is>
+        <v>2.4999999999363349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
       </c>
       <c r="C35">
         <v>134</v>
@@ -1481,7 +1691,7 @@
         <v>45</v>
       </c>
       <c r="E35">
-        <v>44.00000000009641</v>
+        <v>44.000000000096414</v>
       </c>
       <c r="F35">
         <v>58.4</v>
@@ -1493,19 +1703,15 @@
         <v>44</v>
       </c>
       <c r="I35">
-        <v>0.5000000000370619</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>M16</t>
-        </is>
+        <v>0.50000000003706191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
       </c>
       <c r="C36">
         <v>142</v>
@@ -1514,10 +1720,10 @@
         <v>45</v>
       </c>
       <c r="E36">
-        <v>40.99999999999682</v>
+        <v>40.999999999996817</v>
       </c>
       <c r="F36">
-        <v>55.5355</v>
+        <v>55.535499999999999</v>
       </c>
       <c r="G36">
         <v>73</v>
@@ -1526,19 +1732,15 @@
         <v>36</v>
       </c>
       <c r="I36">
-        <v>57.00000000003001</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
+        <v>57.000000000030013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
       </c>
       <c r="C37">
         <v>161</v>
@@ -1550,7 +1752,7 @@
         <v>31.333333333273</v>
       </c>
       <c r="F37">
-        <v>74.41516666666668</v>
+        <v>74.415166666666678</v>
       </c>
       <c r="G37">
         <v>83</v>
@@ -1559,19 +1761,15 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>19.6666666666772</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>M12</t>
-        </is>
+        <v>19.666666666677202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
       </c>
       <c r="C38">
         <v>161</v>
@@ -1580,10 +1778,10 @@
         <v>53</v>
       </c>
       <c r="E38">
-        <v>34.99999999997499</v>
+        <v>34.999999999974989</v>
       </c>
       <c r="F38">
-        <v>67.459</v>
+        <v>67.459000000000003</v>
       </c>
       <c r="G38">
         <v>79</v>
@@ -1592,19 +1790,15 @@
         <v>26</v>
       </c>
       <c r="I38">
-        <v>27.50000000002274</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
+        <v>27.500000000022741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
       </c>
       <c r="C39">
         <v>172</v>
@@ -1613,10 +1807,10 @@
         <v>51</v>
       </c>
       <c r="E39">
-        <v>41.00000000007867</v>
+        <v>41.000000000078671</v>
       </c>
       <c r="F39">
-        <v>49.529</v>
+        <v>49.529000000000003</v>
       </c>
       <c r="G39">
         <v>83</v>
@@ -1625,19 +1819,15 @@
         <v>2</v>
       </c>
       <c r="I39">
-        <v>31.50000000006685</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>31.500000000066851</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
       </c>
       <c r="C40">
         <v>183</v>
@@ -1646,10 +1836,10 @@
         <v>17</v>
       </c>
       <c r="E40">
-        <v>26.83333333332485</v>
+        <v>26.833333333324848</v>
       </c>
       <c r="F40">
-        <v>44.824</v>
+        <v>44.823999999999998</v>
       </c>
       <c r="G40">
         <v>82</v>
@@ -1661,16 +1851,12 @@
         <v>26.16666666665424</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>M14</t>
-        </is>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
       </c>
       <c r="C41">
         <v>80</v>
@@ -1679,10 +1865,10 @@
         <v>24</v>
       </c>
       <c r="E41">
-        <v>59.66666666667834</v>
+        <v>59.666666666678339</v>
       </c>
       <c r="F41">
-        <v>68.72149999999999</v>
+        <v>68.721499999999992</v>
       </c>
       <c r="G41">
         <v>93</v>
@@ -1691,19 +1877,15 @@
         <v>51</v>
       </c>
       <c r="I41">
-        <v>20.66666666667288</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
+        <v>20.666666666672882</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
       </c>
       <c r="C42">
         <v>89</v>
@@ -1712,7 +1894,7 @@
         <v>59</v>
       </c>
       <c r="E42">
-        <v>59.33333333332257</v>
+        <v>59.333333333322571</v>
       </c>
       <c r="F42">
         <v>96.69383333333333</v>
@@ -1724,19 +1906,15 @@
         <v>46</v>
       </c>
       <c r="I42">
-        <v>25.16666666668584</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
+        <v>25.166666666685838</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
       </c>
       <c r="C43">
         <v>90</v>
@@ -1748,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>92.678</v>
+        <v>92.677999999999997</v>
       </c>
       <c r="G43">
         <v>90</v>
@@ -1757,19 +1935,15 @@
         <v>4</v>
       </c>
       <c r="I43">
-        <v>36.00000000000478</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>M16</t>
-        </is>
+        <v>36.000000000004782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
       </c>
       <c r="C44">
         <v>136</v>
@@ -1778,7 +1952,7 @@
         <v>55</v>
       </c>
       <c r="E44">
-        <v>55.0000000000864</v>
+        <v>55.000000000086402</v>
       </c>
       <c r="F44">
         <v>36.1355</v>
@@ -1790,19 +1964,15 @@
         <v>35</v>
       </c>
       <c r="I44">
-        <v>24.50000000004593</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>M15</t>
-        </is>
+        <v>24.500000000045929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
       </c>
       <c r="C45">
         <v>167</v>
@@ -1811,7 +1981,7 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>2.000000000032287</v>
+        <v>2.0000000000322871</v>
       </c>
       <c r="F45">
         <v>9.73</v>
@@ -1823,19 +1993,15 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>24.16666666664924</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
+        <v>24.166666666649238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
       </c>
       <c r="C46">
         <v>184</v>
@@ -1844,10 +2010,10 @@
         <v>23</v>
       </c>
       <c r="E46">
-        <v>9.333333333252085</v>
+        <v>9.3333333332520851</v>
       </c>
       <c r="F46">
-        <v>36.80316666666666</v>
+        <v>36.803166666666662</v>
       </c>
       <c r="G46">
         <v>85</v>
@@ -1856,19 +2022,15 @@
         <v>19</v>
       </c>
       <c r="I46">
-        <v>46.33333333324913</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>D3</t>
-        </is>
+        <v>46.333333333249129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
       </c>
       <c r="C47">
         <v>45</v>
@@ -1877,10 +2039,10 @@
         <v>49</v>
       </c>
       <c r="E47">
-        <v>37.83333333331655</v>
+        <v>37.833333333316553</v>
       </c>
       <c r="F47">
-        <v>43.7135</v>
+        <v>43.713500000000003</v>
       </c>
       <c r="G47">
         <v>94</v>
@@ -1889,19 +2051,15 @@
         <v>22</v>
       </c>
       <c r="I47">
-        <v>9.666666666645369</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
+        <v>9.6666666666453693</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
       </c>
       <c r="C48">
         <v>46</v>
@@ -1910,10 +2068,10 @@
         <v>30</v>
       </c>
       <c r="E48">
-        <v>39.50000000002376</v>
+        <v>39.500000000023761</v>
       </c>
       <c r="F48">
-        <v>42.563</v>
+        <v>42.563000000000002</v>
       </c>
       <c r="G48">
         <v>93</v>
@@ -1922,19 +2080,15 @@
         <v>34</v>
       </c>
       <c r="I48">
-        <v>10.66666666662059</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>D2</t>
-        </is>
+        <v>10.666666666620589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1943,10 +2097,10 @@
         <v>23</v>
       </c>
       <c r="E49">
-        <v>34.83333333330563</v>
+        <v>34.833333333305632</v>
       </c>
       <c r="F49">
-        <v>43.4945</v>
+        <v>43.494500000000002</v>
       </c>
       <c r="G49">
         <v>93</v>
@@ -1955,19 +2109,15 @@
         <v>29</v>
       </c>
       <c r="I49">
-        <v>28.50000000002865</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
+        <v>28.500000000028649</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
       </c>
       <c r="C50">
         <v>90</v>
@@ -1976,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1.666666666642414</v>
+        <v>1.6666666666424139</v>
       </c>
       <c r="F50">
-        <v>45.44216666666667</v>
+        <v>45.442166666666672</v>
       </c>
       <c r="G50">
         <v>96</v>
@@ -1988,19 +2138,15 @@
         <v>42</v>
       </c>
       <c r="I50">
-        <v>29.16666666661058</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
+        <v>29.166666666610581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
       </c>
       <c r="C51">
         <v>343</v>
@@ -2009,7 +2155,7 @@
         <v>40</v>
       </c>
       <c r="E51">
-        <v>16.33333333340943</v>
+        <v>16.333333333409431</v>
       </c>
       <c r="F51">
         <v>23.78833333333333</v>
@@ -2021,19 +2167,15 @@
         <v>37</v>
       </c>
       <c r="I51">
-        <v>31.3333333333037</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>M6</t>
-        </is>
+        <v>31.333333333303699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
       </c>
       <c r="C52">
         <v>72</v>
@@ -2042,10 +2184,10 @@
         <v>13</v>
       </c>
       <c r="E52">
-        <v>59.49999999996976</v>
+        <v>59.499999999969759</v>
       </c>
       <c r="F52">
-        <v>23.7145</v>
+        <v>23.714500000000001</v>
       </c>
       <c r="G52">
         <v>86</v>
@@ -2054,19 +2196,15 @@
         <v>44</v>
       </c>
       <c r="I52">
-        <v>36.49999999995316</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
+        <v>36.499999999953161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
       </c>
       <c r="C53">
         <v>90</v>
@@ -2078,7 +2216,7 @@
         <v>0.5000000000336513</v>
       </c>
       <c r="F53">
-        <v>45.437</v>
+        <v>45.436999999999998</v>
       </c>
       <c r="G53">
         <v>83</v>
@@ -2090,16 +2228,12 @@
         <v>0.9999999999956799</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
       </c>
       <c r="C54">
         <v>102</v>
@@ -2108,10 +2242,10 @@
         <v>48</v>
       </c>
       <c r="E54">
-        <v>10.50000000003138</v>
+        <v>10.500000000031379</v>
       </c>
       <c r="F54">
-        <v>3.5475</v>
+        <v>3.5474999999999999</v>
       </c>
       <c r="G54">
         <v>86</v>
@@ -2120,19 +2254,15 @@
         <v>44</v>
       </c>
       <c r="I54">
-        <v>22.99999999996544</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
+        <v>22.999999999965439</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
       </c>
       <c r="C55">
         <v>113</v>
@@ -2141,10 +2271,10 @@
         <v>37</v>
       </c>
       <c r="E55">
-        <v>28.50000000000136</v>
+        <v>28.500000000001361</v>
       </c>
       <c r="F55">
-        <v>57.109</v>
+        <v>57.109000000000002</v>
       </c>
       <c r="G55">
         <v>81</v>
@@ -2153,19 +2283,15 @@
         <v>36</v>
       </c>
       <c r="I55">
-        <v>23.33333333333144</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>M7</t>
-        </is>
+        <v>23.333333333331439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
       </c>
       <c r="C56">
         <v>151</v>
@@ -2174,10 +2300,10 @@
         <v>5</v>
       </c>
       <c r="E56">
-        <v>38.00000000003365</v>
+        <v>38.000000000033651</v>
       </c>
       <c r="F56">
-        <v>46.265</v>
+        <v>46.265000000000001</v>
       </c>
       <c r="G56">
         <v>71</v>
@@ -2189,16 +2315,12 @@
         <v>21.50000000005889</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
       </c>
       <c r="C57">
         <v>151</v>
@@ -2207,7 +2329,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>35.00000000002274</v>
+        <v>35.000000000022737</v>
       </c>
       <c r="F57">
         <v>18.084</v>
@@ -2219,19 +2341,15 @@
         <v>9</v>
       </c>
       <c r="I57">
-        <v>59.4999999999834</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
+        <v>59.499999999983402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
       </c>
       <c r="C58">
         <v>164</v>
@@ -2240,10 +2358,10 @@
         <v>51</v>
       </c>
       <c r="E58">
-        <v>30.50000000008822</v>
+        <v>30.500000000088221</v>
       </c>
       <c r="F58">
-        <v>13.3115</v>
+        <v>13.311500000000001</v>
       </c>
       <c r="G58">
         <v>88</v>
@@ -2252,19 +2370,15 @@
         <v>56</v>
       </c>
       <c r="I58">
-        <v>0.9999999999786269</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
+        <v>0.99999999997862687</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
       </c>
       <c r="C59">
         <v>167</v>
@@ -2273,7 +2387,7 @@
         <v>16</v>
       </c>
       <c r="E59">
-        <v>2.999999999942702</v>
+        <v>2.9999999999427018</v>
       </c>
       <c r="G59">
         <v>78</v>
@@ -2285,16 +2399,12 @@
         <v>19.50000000003001</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
       </c>
       <c r="C60">
         <v>167</v>
@@ -2312,19 +2422,15 @@
         <v>56</v>
       </c>
       <c r="I60">
-        <v>2.499999999977263</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
+        <v>2.4999999999772631</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
       </c>
       <c r="C61">
         <v>167</v>
@@ -2333,7 +2439,7 @@
         <v>36</v>
       </c>
       <c r="E61">
-        <v>41.50000000001</v>
+        <v>41.500000000009997</v>
       </c>
       <c r="G61">
         <v>77</v>
@@ -2345,16 +2451,12 @@
         <v>31.50000000008049</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
       </c>
       <c r="C62">
         <v>192</v>
@@ -2363,7 +2465,7 @@
         <v>59</v>
       </c>
       <c r="E62">
-        <v>35.49999999998818</v>
+        <v>35.499999999988177</v>
       </c>
       <c r="G62">
         <v>85</v>
@@ -2375,16 +2477,12 @@
         <v>54.49999999999136</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>M5</t>
-        </is>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
       </c>
       <c r="C63">
         <v>204</v>
@@ -2393,10 +2491,10 @@
         <v>26</v>
       </c>
       <c r="E63">
-        <v>32.00000000001865</v>
+        <v>32.000000000018652</v>
       </c>
       <c r="F63">
-        <v>50.85299999999999</v>
+        <v>50.852999999999987</v>
       </c>
       <c r="G63">
         <v>87</v>
@@ -2405,19 +2503,15 @@
         <v>13</v>
       </c>
       <c r="I63">
-        <v>11.99999999999591</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
+        <v>11.999999999995911</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
       </c>
       <c r="C64">
         <v>227</v>
@@ -2429,7 +2523,7 @@
         <v>17.49999999996362</v>
       </c>
       <c r="F64">
-        <v>60.89083333333333</v>
+        <v>60.890833333333333</v>
       </c>
       <c r="G64">
         <v>90</v>
@@ -2438,19 +2532,15 @@
         <v>48</v>
       </c>
       <c r="I64">
-        <v>24.16666666666288</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>M8</t>
-        </is>
+        <v>24.166666666662881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
       </c>
       <c r="C65">
         <v>230</v>
@@ -2462,7 +2552,7 @@
         <v>43.50000000003547</v>
       </c>
       <c r="F65">
-        <v>43.549</v>
+        <v>43.548999999999999</v>
       </c>
       <c r="G65">
         <v>91</v>
@@ -2471,19 +2561,15 @@
         <v>43</v>
       </c>
       <c r="I65">
-        <v>35.99999999997408</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>S4</t>
-        </is>
+        <v>35.999999999974079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
       </c>
       <c r="C66">
         <v>90</v>
@@ -2492,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>4.166666666657193</v>
+        <v>4.1666666666571928</v>
       </c>
       <c r="F66">
-        <v>36.80616666666666</v>
+        <v>36.806166666666662</v>
       </c>
       <c r="G66">
         <v>94</v>
@@ -2504,19 +2590,15 @@
         <v>42</v>
       </c>
       <c r="I66">
-        <v>41.8333333332771</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
+        <v>41.833333333277103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
       </c>
       <c r="C67">
         <v>116</v>
@@ -2525,10 +2607,10 @@
         <v>59</v>
       </c>
       <c r="E67">
-        <v>50.66666666666947</v>
+        <v>50.666666666669471</v>
       </c>
       <c r="F67">
-        <v>74.419</v>
+        <v>74.418999999999997</v>
       </c>
       <c r="G67">
         <v>97</v>
@@ -2537,19 +2619,15 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <v>4.499999999992497</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
+        <v>4.4999999999924967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
       </c>
       <c r="C68">
         <v>214</v>
@@ -2558,10 +2636,10 @@
         <v>56</v>
       </c>
       <c r="E68">
-        <v>26.16666666666788</v>
+        <v>26.166666666667879</v>
       </c>
       <c r="F68">
-        <v>57.114</v>
+        <v>57.113999999999997</v>
       </c>
       <c r="G68">
         <v>98</v>
@@ -2573,16 +2651,12 @@
         <v>21.16666666669289</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>S5</t>
-        </is>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>32</v>
       </c>
       <c r="C69">
         <v>264</v>
@@ -2591,7 +2665,7 @@
         <v>59</v>
       </c>
       <c r="E69">
-        <v>45.00000000001364</v>
+        <v>45.000000000013642</v>
       </c>
       <c r="F69">
         <v>23.79</v>
@@ -2603,7 +2677,7 @@
         <v>23</v>
       </c>
       <c r="I69">
-        <v>49.66666666667379</v>
+        <v>49.666666666673791</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/With_observations/Avala/Avala_observations.xlsx
+++ b/Data/Input/With_observations/Avala/Avala_observations.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Avala\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Points" sheetId="2" r:id="rId1"/>
     <sheet name="Observations" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
   <si>
     <t>From</t>
   </si>
@@ -217,6 +222,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -264,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +713,29 @@
       </c>
       <c r="G8" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>61999.777220182506</v>
+      </c>
+      <c r="D9">
+        <v>50273.613952538682</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/With_observations/Avala/Avala_observations.xlsx
+++ b/Data/Input/With_observations/Avala/Avala_observations.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Avala\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="2" r:id="rId1"/>
     <sheet name="Observations" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
   <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
     <t>HzD</t>
   </si>
   <si>
@@ -161,6 +150,12 @@
   </si>
   <si>
     <t>SC</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -272,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,7 +302,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -533,25 +528,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -559,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>61926.45</v>
@@ -582,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>61970.93</v>
@@ -605,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>62007.96</v>
@@ -628,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>61990.13</v>
@@ -651,7 +646,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>61923.74</v>
@@ -674,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>61902.91</v>
@@ -697,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>61953.88</v>
@@ -720,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>61999.777220182506</v>
@@ -748,45 +743,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>38</v>
@@ -812,10 +809,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
       <c r="C3">
         <v>47</v>
@@ -841,10 +838,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>59</v>
@@ -870,10 +867,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>77</v>
@@ -899,10 +896,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>83</v>
@@ -925,10 +922,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>92</v>
@@ -951,10 +948,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>92</v>
@@ -977,10 +974,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>92</v>
@@ -1003,10 +1000,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>101</v>
@@ -1032,10 +1029,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>121</v>
@@ -1061,10 +1058,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>124</v>
@@ -1090,10 +1087,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>166</v>
@@ -1119,10 +1116,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>201</v>
@@ -1148,10 +1145,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1177,10 +1174,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -1206,10 +1203,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>31</v>
@@ -1235,10 +1232,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>46</v>
@@ -1261,10 +1258,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>46</v>
@@ -1287,10 +1284,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>47</v>
@@ -1313,10 +1310,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>65</v>
@@ -1342,10 +1339,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>74</v>
@@ -1371,10 +1368,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>95</v>
@@ -1400,10 +1397,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>97</v>
@@ -1429,10 +1426,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>331</v>
@@ -1458,10 +1455,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>346</v>
@@ -1487,10 +1484,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>63</v>
@@ -1516,10 +1513,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>65</v>
@@ -1545,10 +1542,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>78</v>
@@ -1574,10 +1571,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>89</v>
@@ -1603,10 +1600,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>91</v>
@@ -1632,10 +1629,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>121</v>
@@ -1658,10 +1655,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>121</v>
@@ -1684,10 +1681,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>121</v>
@@ -1710,10 +1707,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>134</v>
@@ -1739,10 +1736,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>142</v>
@@ -1768,10 +1765,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>161</v>
@@ -1797,10 +1794,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>161</v>
@@ -1826,10 +1823,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39">
         <v>172</v>
@@ -1855,10 +1852,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>183</v>
@@ -1884,10 +1881,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>80</v>
@@ -1913,10 +1910,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C42">
         <v>89</v>
@@ -1942,10 +1939,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>90</v>
@@ -1971,10 +1968,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44">
         <v>136</v>
@@ -2000,10 +1997,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>167</v>
@@ -2029,10 +2026,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>184</v>
@@ -2058,10 +2055,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>45</v>
@@ -2087,10 +2084,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
         <v>32</v>
-      </c>
-      <c r="B48" t="s">
-        <v>34</v>
       </c>
       <c r="C48">
         <v>46</v>
@@ -2116,10 +2113,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -2145,10 +2142,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>90</v>
@@ -2174,10 +2171,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>343</v>
@@ -2203,10 +2200,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C52">
         <v>72</v>
@@ -2232,10 +2229,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C53">
         <v>90</v>
@@ -2261,10 +2258,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>102</v>
@@ -2290,10 +2287,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>113</v>
@@ -2319,10 +2316,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>151</v>
@@ -2348,10 +2345,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C57">
         <v>151</v>
@@ -2377,10 +2374,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>164</v>
@@ -2406,10 +2403,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C59">
         <v>167</v>
@@ -2432,10 +2429,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C60">
         <v>167</v>
@@ -2458,10 +2455,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C61">
         <v>167</v>
@@ -2484,10 +2481,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
         <v>11</v>
-      </c>
-      <c r="B62" t="s">
-        <v>13</v>
       </c>
       <c r="C62">
         <v>192</v>
@@ -2510,10 +2507,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>204</v>
@@ -2539,10 +2536,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <v>227</v>
@@ -2568,10 +2565,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <v>230</v>
@@ -2597,10 +2594,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C66">
         <v>90</v>
@@ -2626,10 +2623,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C67">
         <v>116</v>
@@ -2655,10 +2652,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C68">
         <v>214</v>
@@ -2684,10 +2681,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
         <v>30</v>
-      </c>
-      <c r="B69" t="s">
-        <v>32</v>
       </c>
       <c r="C69">
         <v>264</v>

--- a/Data/Input/With_observations/Avala/Avala_observations.xlsx
+++ b/Data/Input/With_observations/Avala/Avala_observations.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="2" r:id="rId1"/>
     <sheet name="Observations" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
   <si>
     <t>HzD</t>
   </si>
@@ -149,13 +149,22 @@
     <t>Point_object</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>from</t>
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>sd_Hz</t>
+  </si>
+  <si>
+    <t>sd_dist</t>
+  </si>
+  <si>
+    <t>sd_Vz</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +533,7 @@
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -554,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>61926.45</v>
@@ -577,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>61970.93</v>
@@ -600,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>62007.96</v>
@@ -623,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>61990.13</v>
@@ -646,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>61923.74</v>
@@ -669,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>61902.91</v>
@@ -689,16 +699,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>61953.88</v>
+        <v>61999.777220182506</v>
       </c>
       <c r="D8">
-        <v>50288.29</v>
+        <v>50273.613952538682</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -707,29 +717,6 @@
         <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>61999.777220182506</v>
-      </c>
-      <c r="D9">
-        <v>50273.613952538682</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -741,20 +728,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -766,19 +753,31 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -794,20 +793,20 @@
       <c r="E2">
         <v>24.500000000008409</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>17.679500000000001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>91</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>34</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5.9999999999809006</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -823,20 +822,20 @@
       <c r="E3">
         <v>16.83333333333735</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>60.890833333333333</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>89</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>34.66666666666697</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -852,20 +851,20 @@
       <c r="E4">
         <v>51.500000000021373</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>55.966500000000003</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>88</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>53</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>57.000000000023192</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -881,20 +880,20 @@
       <c r="E5">
         <v>58.500000000062762</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>38.090000000000003</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>84</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>39</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>31.500000000094129</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -910,17 +909,17 @@
       <c r="E6">
         <v>32.500000000042057</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>82</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>35</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10.50000000002456</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -936,17 +935,17 @@
       <c r="E7">
         <v>47.750000000035023</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>79</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>12.24999999995816</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -962,17 +961,17 @@
       <c r="E8">
         <v>59.750000000027512</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>79</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>11</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>26.000000000024102</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -988,17 +987,17 @@
       <c r="E9">
         <v>43.249999999926558</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>79</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>15</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>20.499999999947249</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1014,20 +1013,20 @@
       <c r="E10">
         <v>3.0000000000245559</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>24.366499999999998</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>82</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>13</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>39.500000000005002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1043,20 +1042,20 @@
       <c r="E11">
         <v>23.999999999971351</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>31.805499999999999</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>83</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>59</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3.4106051316484809E-12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1072,20 +1071,20 @@
       <c r="E12">
         <v>33.333333333329172</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>92.679166666666674</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>89</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>57</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>18.33333333328142</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1101,20 +1100,20 @@
       <c r="E13">
         <v>41.499999999887223</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>44.661666666666669</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>88</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>54.333333333327118</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1130,20 +1129,20 @@
       <c r="E14">
         <v>13.50000000001501</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>14.87</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>90</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>32.50000000007276</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1159,20 +1158,20 @@
       <c r="E15">
         <v>3.500000000016108</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>57.316500000000012</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>91</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>59</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>58.500000000001357</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1188,20 +1187,20 @@
       <c r="E16">
         <v>48.499999999994259</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>40.667499999999997</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>87</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>29</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>34.999999999954532</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1217,20 +1216,20 @@
       <c r="E17">
         <v>10.00000000001649</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>31.572500000000002</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>86</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>42</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1.9999999999402009</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1246,17 +1245,17 @@
       <c r="E18">
         <v>47.999999999997272</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>81</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>37</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>27.000000000002728</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1272,17 +1271,17 @@
       <c r="E19">
         <v>33.249999999998749</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>81</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>34</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>43.74999999996362</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1298,17 +1297,17 @@
       <c r="E20">
         <v>3.2500000000004552</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>81</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>36</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>27.499999999988631</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1324,20 +1323,20 @@
       <c r="E21">
         <v>36.00000000003206</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>49.88</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>87</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>39</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>20.00000000003638</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1353,20 +1352,20 @@
       <c r="E22">
         <v>52.166666666654457</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>96.692499999999995</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>87</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>15</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>26.666666666687892</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1382,20 +1381,20 @@
       <c r="E23">
         <v>51.500000000028187</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>31.145</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>89</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>56</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>43.499999999974079</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1411,20 +1410,20 @@
       <c r="E24">
         <v>35.833333333313249</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>66.453000000000003</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>91</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>14</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>42.333333333355093</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1440,20 +1439,20 @@
       <c r="E25">
         <v>14.500000000034561</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>33.680999999999997</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>92</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>37</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>24.500000000039108</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1469,20 +1468,20 @@
       <c r="E26">
         <v>45.166666666664241</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>44.661000000000001</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>91</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>58</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>39.333333333412376</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1498,20 +1497,20 @@
       <c r="E27">
         <v>53.666666666661627</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>66.452333333333328</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>88</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>48</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>15.66666666665356</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1527,20 +1526,20 @@
       <c r="E28">
         <v>17.000000000039108</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>35.360500000000002</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>87</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>39</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>39.500000000018652</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1556,20 +1555,20 @@
       <c r="E29">
         <v>39.999999999984077</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>63.058</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>89</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>43</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>29.5000000000482</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1585,20 +1584,20 @@
       <c r="E30">
         <v>57.499999999985221</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>92.678333333333327</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>90</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>4</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>40.00000000001819</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1614,20 +1613,20 @@
       <c r="E31">
         <v>47.500000000106873</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>61.209000000000003</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>86</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>58</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>37.499999999972722</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1643,17 +1642,17 @@
       <c r="E32">
         <v>33.499999999972943</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>79</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>21</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>19.25000000004729</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1669,17 +1668,17 @@
       <c r="E33">
         <v>33.249999999904958</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>79</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>20</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>28.500000000059352</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1695,17 +1694,17 @@
       <c r="E34">
         <v>9.2499999999677129</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>79</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>23</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>2.4999999999363349</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1721,20 +1720,20 @@
       <c r="E35">
         <v>44.000000000096414</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>58.4</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>74</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>44</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.50000000003706191</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -1750,20 +1749,20 @@
       <c r="E36">
         <v>40.999999999996817</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>55.535499999999999</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>73</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>36</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>57.000000000030013</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1779,20 +1778,20 @@
       <c r="E37">
         <v>31.333333333273</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>74.415166666666678</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>83</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>19.666666666677202</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1808,20 +1807,20 @@
       <c r="E38">
         <v>34.999999999974989</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>67.459000000000003</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>79</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>26</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>27.500000000022741</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1837,20 +1836,20 @@
       <c r="E39">
         <v>41.000000000078671</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>49.529000000000003</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>83</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>31.500000000066851</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1866,20 +1865,20 @@
       <c r="E40">
         <v>26.833333333324848</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>44.823999999999998</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>82</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>15</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>26.16666666665424</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -1895,20 +1894,20 @@
       <c r="E41">
         <v>59.666666666678339</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>68.721499999999992</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>93</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>51</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>20.666666666672882</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1924,20 +1923,20 @@
       <c r="E42">
         <v>59.333333333322571</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>96.69383333333333</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>92</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>46</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>25.166666666685838</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1953,20 +1952,20 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>92.677999999999997</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>90</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>4</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>36.000000000004782</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1982,20 +1981,20 @@
       <c r="E44">
         <v>55.000000000086402</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>36.1355</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>74</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>35</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>24.500000000045929</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -2011,20 +2010,20 @@
       <c r="E45">
         <v>2.0000000000322871</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>9.73</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>90</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>22</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>24.166666666649238</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -2040,20 +2039,20 @@
       <c r="E46">
         <v>9.3333333332520851</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>36.803166666666662</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>85</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>19</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>46.333333333249129</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2069,20 +2068,20 @@
       <c r="E47">
         <v>37.833333333316553</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>43.713500000000003</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>94</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>22</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>9.6666666666453693</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2098,20 +2097,20 @@
       <c r="E48">
         <v>39.500000000023761</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>42.563000000000002</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>93</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>34</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>10.666666666620589</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -2127,20 +2126,20 @@
       <c r="E49">
         <v>34.833333333305632</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>43.494500000000002</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>93</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>29</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>28.500000000028649</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -2156,20 +2155,20 @@
       <c r="E50">
         <v>1.6666666666424139</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>45.442166666666672</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>96</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>42</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>29.166666666610581</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -2185,20 +2184,20 @@
       <c r="E51">
         <v>16.333333333409431</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>23.78833333333333</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>82</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>37</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>31.333333333303699</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2214,20 +2213,20 @@
       <c r="E52">
         <v>59.499999999969759</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>23.714500000000001</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>86</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>44</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>36.499999999953161</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2243,20 +2242,20 @@
       <c r="E53">
         <v>0.5000000000336513</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>45.436999999999998</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>83</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>21</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>0.9999999999956799</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2272,20 +2271,20 @@
       <c r="E54">
         <v>10.500000000031379</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>3.5474999999999999</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>86</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>44</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>22.999999999965439</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2301,20 +2300,20 @@
       <c r="E55">
         <v>28.500000000001361</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>57.109000000000002</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>81</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>36</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>23.333333333331439</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2330,20 +2329,20 @@
       <c r="E56">
         <v>38.000000000033651</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>46.265000000000001</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>71</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>32</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>21.50000000005889</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2359,20 +2358,20 @@
       <c r="E57">
         <v>35.000000000022737</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>18.084</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>82</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>9</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>59.499999999983402</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2388,20 +2387,20 @@
       <c r="E58">
         <v>30.500000000088221</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>13.311500000000001</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>88</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>56</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0.99999999997862687</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2417,17 +2416,17 @@
       <c r="E59">
         <v>2.9999999999427018</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>78</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>1</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>19.50000000003001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2443,17 +2442,17 @@
       <c r="E60">
         <v>18.00000000007913</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>77</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>56</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>2.4999999999772631</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2469,17 +2468,17 @@
       <c r="E61">
         <v>41.500000000009997</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>77</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>58</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>31.50000000008049</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2495,17 +2494,17 @@
       <c r="E62">
         <v>35.499999999988177</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>85</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>13</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>54.49999999999136</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2521,20 +2520,20 @@
       <c r="E63">
         <v>32.000000000018652</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>50.852999999999987</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>87</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>13</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>11.999999999995911</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2550,20 +2549,20 @@
       <c r="E64">
         <v>17.49999999996362</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>60.890833333333333</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>90</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>48</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>24.166666666662881</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2579,20 +2578,20 @@
       <c r="E65">
         <v>43.50000000003547</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>43.548999999999999</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>91</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>43</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>35.999999999974079</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -2608,20 +2607,20 @@
       <c r="E66">
         <v>4.1666666666571928</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>36.806166666666662</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>94</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>42</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>41.833333333277103</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -2637,20 +2636,20 @@
       <c r="E67">
         <v>50.666666666669471</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>74.418999999999997</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>97</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>1</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>4.4999999999924967</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -2666,20 +2665,20 @@
       <c r="E68">
         <v>26.166666666667879</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>57.113999999999997</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>98</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>25</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>21.16666666669289</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2695,16 +2694,16 @@
       <c r="E69">
         <v>45.000000000013642</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>23.79</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>97</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>23</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>49.666666666673791</v>
       </c>
     </row>

--- a/Data/Input/With_observations/Avala/Avala_observations.xlsx
+++ b/Data/Input/With_observations/Avala/Avala_observations.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\With_observations\Avala\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6180" yWindow="768" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="2" r:id="rId1"/>
@@ -276,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +316,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,21 +527,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -559,7 +564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -582,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -605,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -628,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -651,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -674,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -697,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -730,13 +735,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -777,7 +782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -805,8 +810,14 @@
       <c r="J2">
         <v>5.9999999999809006</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -834,8 +845,14 @@
       <c r="J3">
         <v>34.66666666666697</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -863,8 +880,14 @@
       <c r="J4">
         <v>57.000000000023192</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -892,8 +915,14 @@
       <c r="J5">
         <v>31.500000000094129</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -918,8 +947,14 @@
       <c r="J6">
         <v>10.50000000002456</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -944,8 +979,14 @@
       <c r="J7">
         <v>12.24999999995816</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -970,8 +1011,14 @@
       <c r="J8">
         <v>26.000000000024102</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -996,8 +1043,14 @@
       <c r="J9">
         <v>20.499999999947249</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1078,14 @@
       <c r="J10">
         <v>39.500000000005002</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1113,14 @@
       <c r="J11">
         <v>3.4106051316484809E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1083,8 +1148,14 @@
       <c r="J12">
         <v>18.33333333328142</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1112,8 +1183,14 @@
       <c r="J13">
         <v>54.333333333327118</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1141,8 +1218,14 @@
       <c r="J14">
         <v>32.50000000007276</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1170,8 +1253,14 @@
       <c r="J15">
         <v>58.500000000001357</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1199,8 +1288,14 @@
       <c r="J16">
         <v>34.999999999954532</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1228,8 +1323,14 @@
       <c r="J17">
         <v>1.9999999999402009</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1254,8 +1355,14 @@
       <c r="J18">
         <v>27.000000000002728</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1280,8 +1387,14 @@
       <c r="J19">
         <v>43.74999999996362</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1306,8 +1419,14 @@
       <c r="J20">
         <v>27.499999999988631</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1335,8 +1454,14 @@
       <c r="J21">
         <v>20.00000000003638</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1364,8 +1489,14 @@
       <c r="J22">
         <v>26.666666666687892</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1393,8 +1524,14 @@
       <c r="J23">
         <v>43.499999999974079</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1422,8 +1559,14 @@
       <c r="J24">
         <v>42.333333333355093</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1451,8 +1594,14 @@
       <c r="J25">
         <v>24.500000000039108</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1480,8 +1629,14 @@
       <c r="J26">
         <v>39.333333333412376</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1509,8 +1664,14 @@
       <c r="J27">
         <v>15.66666666665356</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1538,8 +1699,14 @@
       <c r="J28">
         <v>39.500000000018652</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1567,8 +1734,14 @@
       <c r="J29">
         <v>29.5000000000482</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1596,8 +1769,14 @@
       <c r="J30">
         <v>40.00000000001819</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1625,8 +1804,14 @@
       <c r="J31">
         <v>37.499999999972722</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1651,8 +1836,14 @@
       <c r="J32">
         <v>19.25000000004729</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1677,8 +1868,14 @@
       <c r="J33">
         <v>28.500000000059352</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1703,8 +1900,14 @@
       <c r="J34">
         <v>2.4999999999363349</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1732,8 +1935,14 @@
       <c r="J35">
         <v>0.50000000003706191</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -1761,8 +1970,14 @@
       <c r="J36">
         <v>57.000000000030013</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1790,8 +2005,14 @@
       <c r="J37">
         <v>19.666666666677202</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1819,8 +2040,14 @@
       <c r="J38">
         <v>27.500000000022741</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1848,8 +2075,14 @@
       <c r="J39">
         <v>31.500000000066851</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1877,8 +2110,14 @@
       <c r="J40">
         <v>26.16666666665424</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -1906,8 +2145,14 @@
       <c r="J41">
         <v>20.666666666672882</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +2180,14 @@
       <c r="J42">
         <v>25.166666666685838</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1964,8 +2215,14 @@
       <c r="J43">
         <v>36.000000000004782</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1993,8 +2250,14 @@
       <c r="J44">
         <v>24.500000000045929</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -2022,8 +2285,14 @@
       <c r="J45">
         <v>24.166666666649238</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -2051,8 +2320,14 @@
       <c r="J46">
         <v>46.333333333249129</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2080,8 +2355,14 @@
       <c r="J47">
         <v>9.6666666666453693</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2109,8 +2390,14 @@
       <c r="J48">
         <v>10.666666666620589</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -2138,8 +2425,14 @@
       <c r="J49">
         <v>28.500000000028649</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -2167,8 +2460,14 @@
       <c r="J50">
         <v>29.166666666610581</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -2196,8 +2495,14 @@
       <c r="J51">
         <v>31.333333333303699</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2225,8 +2530,14 @@
       <c r="J52">
         <v>36.499999999953161</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2254,8 +2565,14 @@
       <c r="J53">
         <v>0.9999999999956799</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2283,8 +2600,14 @@
       <c r="J54">
         <v>22.999999999965439</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2312,8 +2635,14 @@
       <c r="J55">
         <v>23.333333333331439</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>5</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2341,8 +2670,14 @@
       <c r="J56">
         <v>21.50000000005889</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2370,8 +2705,14 @@
       <c r="J57">
         <v>59.499999999983402</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2399,8 +2740,14 @@
       <c r="J58">
         <v>0.99999999997862687</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2425,8 +2772,14 @@
       <c r="J59">
         <v>19.50000000003001</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="L59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2451,8 +2804,14 @@
       <c r="J60">
         <v>2.4999999999772631</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2477,8 +2836,14 @@
       <c r="J61">
         <v>31.50000000008049</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2503,8 +2868,14 @@
       <c r="J62">
         <v>54.49999999999136</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2532,8 +2903,14 @@
       <c r="J63">
         <v>11.999999999995911</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2561,8 +2938,14 @@
       <c r="J64">
         <v>24.166666666662881</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>5</v>
+      </c>
+      <c r="L64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2590,8 +2973,14 @@
       <c r="J65">
         <v>35.999999999974079</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -2619,8 +3008,14 @@
       <c r="J66">
         <v>41.833333333277103</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -2648,8 +3043,14 @@
       <c r="J67">
         <v>4.4999999999924967</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>5</v>
+      </c>
+      <c r="L67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -2677,8 +3078,14 @@
       <c r="J68">
         <v>21.16666666669289</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>5</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -2705,6 +3112,12 @@
       </c>
       <c r="J69">
         <v>49.666666666673791</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/With_observations/Avala/Avala_observations.xlsx
+++ b/Data/Input/With_observations/Avala/Avala_observations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="768" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="59">
   <si>
     <t>HzD</t>
   </si>
@@ -145,12 +145,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>FIX_X</t>
-  </si>
-  <si>
-    <t>FIX_Y</t>
-  </si>
-  <si>
     <t>Point_object</t>
   </si>
   <si>
@@ -170,12 +164,48 @@
   </si>
   <si>
     <t>sd_Vz</t>
+  </si>
+  <si>
+    <t>sd_dh</t>
+  </si>
+  <si>
+    <t>d_dh</t>
+  </si>
+  <si>
+    <t>n_dh</t>
+  </si>
+  <si>
+    <t>e_cent_from</t>
+  </si>
+  <si>
+    <t>e_cent_to</t>
+  </si>
+  <si>
+    <t>e_focus</t>
+  </si>
+  <si>
+    <t>e_air</t>
+  </si>
+  <si>
+    <t>FIX_2D</t>
+  </si>
+  <si>
+    <t>FIX_1D</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>dh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,23 +556,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -554,17 +587,20 @@
       <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -577,17 +613,14 @@
       <c r="D2">
         <v>50239.19</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
+      <c r="H2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -600,17 +633,14 @@
       <c r="D3">
         <v>50246.83</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="b">
+      <c r="H3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -623,17 +653,14 @@
       <c r="D4">
         <v>50295.18</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="b">
+      <c r="H4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -646,17 +673,14 @@
       <c r="D5">
         <v>50336.08</v>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -669,17 +693,14 @@
       <c r="D6">
         <v>50333.85</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -692,17 +713,14 @@
       <c r="D7">
         <v>50294.62</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -715,14 +733,11 @@
       <c r="D8">
         <v>50273.613952538682</v>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -733,20 +748,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L69"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -758,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -773,2354 +794,3045 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>38</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>24.500000000008409</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
         <v>17.679500000000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>91</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>34</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>5.9999999999809006</v>
       </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>47</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>16.83333333333735</v>
       </c>
-      <c r="G3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>60.890833333333333</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>89</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>14</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>34.66666666666697</v>
       </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>59</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>51.500000000021373</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>55.966500000000003</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>88</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>53</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>57.000000000023192</v>
       </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>77</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>26</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>58.500000000062762</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
         <v>38.090000000000003</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>84</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>39</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>31.500000000094129</v>
       </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>83</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>32.500000000042057</v>
       </c>
-      <c r="H6">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>82</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>35</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>10.50000000002456</v>
       </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>92</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>47.750000000035023</v>
       </c>
-      <c r="H7">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>79</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>14</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>12.24999999995816</v>
       </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>92</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>31</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>59.750000000027512</v>
       </c>
-      <c r="H8">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>79</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>11</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>26.000000000024102</v>
       </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>92</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>35</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>43.249999999926558</v>
       </c>
-      <c r="H9">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>79</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>15</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>20.499999999947249</v>
       </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>101</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>37</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>3.0000000000245559</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
         <v>24.366499999999998</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>82</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>13</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>39.500000000005002</v>
       </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>121</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>23.999999999971351</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
         <v>31.805499999999999</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>83</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>59</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>3.4106051316484809E-12</v>
       </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>5</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>124</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>24</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>33.333333333329172</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
         <v>92.679166666666674</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>89</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>57</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>18.33333333328142</v>
       </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>166</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>12</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>41.499999999887223</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
         <v>44.661666666666669</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>88</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>54.333333333327118</v>
       </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>5</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>201</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>37</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>13.50000000001501</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
         <v>14.87</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>90</v>
       </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>32.50000000007276</v>
       </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>15</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>3.500000000016108</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
         <v>57.316500000000012</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>91</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>59</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>58.500000000001357</v>
       </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>18</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>40</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>48.499999999994259</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
         <v>40.667499999999997</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>87</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>29</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>34.999999999954532</v>
       </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>5</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>31</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>20</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>10.00000000001649</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
         <v>31.572500000000002</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>86</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>42</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>1.9999999999402009</v>
       </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>46</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>48</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>47.999999999997272</v>
       </c>
-      <c r="H18">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <v>81</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>37</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>27.000000000002728</v>
       </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>46</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>49</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>33.249999999998749</v>
       </c>
-      <c r="H19">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
         <v>81</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>34</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>43.74999999996362</v>
       </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <v>5</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>47</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>3.2500000000004552</v>
       </c>
-      <c r="H20">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
         <v>81</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>36</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>27.499999999988631</v>
       </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>65</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>41</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>36.00000000003206</v>
       </c>
-      <c r="G21">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3">
         <v>49.88</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>87</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>39</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>20.00000000003638</v>
       </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>74</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>18</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>52.166666666654457</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
         <v>96.692499999999995</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>87</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>15</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>26.666666666687892</v>
       </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>48</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>51.500000000028187</v>
       </c>
-      <c r="G23">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>31.145</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>89</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>56</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>43.499999999974079</v>
       </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-      <c r="L23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>97</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>48</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>35.833333333313249</v>
       </c>
-      <c r="G24">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
         <v>66.453000000000003</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>91</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>14</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>42.333333333355093</v>
       </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>331</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>21</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>14.500000000034561</v>
       </c>
-      <c r="G25">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
         <v>33.680999999999997</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>92</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>37</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>24.500000000039108</v>
       </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-      <c r="L25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3">
+        <v>5</v>
+      </c>
+      <c r="M25" s="3">
+        <v>5</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>346</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>12</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>45.166666666664241</v>
       </c>
-      <c r="G26">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
         <v>44.661000000000001</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>91</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>58</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>39.333333333412376</v>
       </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>63</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>23</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>53.666666666661627</v>
       </c>
-      <c r="G27">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3">
         <v>66.452333333333328</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>88</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>48</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>15.66666666665356</v>
       </c>
-      <c r="K27">
-        <v>5</v>
-      </c>
-      <c r="L27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>65</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>9</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>17.000000000039108</v>
       </c>
-      <c r="G28">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
         <v>35.360500000000002</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>87</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>39</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>39.500000000018652</v>
       </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="L28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3">
+        <v>5</v>
+      </c>
+      <c r="M28" s="3">
+        <v>5</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>78</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>14</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>39.999999999984077</v>
       </c>
-      <c r="G29">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3">
         <v>63.058</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>89</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>43</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>29.5000000000482</v>
       </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-      <c r="L29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>89</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>59</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>57.499999999985221</v>
       </c>
-      <c r="G30">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3">
         <v>92.678333333333327</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>90</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>4</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>40.00000000001819</v>
       </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-      <c r="L30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3">
+        <v>5</v>
+      </c>
+      <c r="M30" s="3">
+        <v>5</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>17</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>91</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>36</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>47.500000000106873</v>
       </c>
-      <c r="G31">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3">
         <v>61.209000000000003</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>86</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>58</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>37.499999999972722</v>
       </c>
-      <c r="K31">
-        <v>5</v>
-      </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3">
+        <v>5</v>
+      </c>
+      <c r="M31" s="3">
+        <v>5</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>121</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>39</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>33.499999999972943</v>
       </c>
-      <c r="H32">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
         <v>79</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>21</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>19.25000000004729</v>
       </c>
-      <c r="K32">
-        <v>5</v>
-      </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>121</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>54</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>33.249999999904958</v>
       </c>
-      <c r="H33">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
         <v>79</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>20</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>28.500000000059352</v>
       </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-      <c r="L33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>15</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>121</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>57</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>9.2499999999677129</v>
       </c>
-      <c r="H34">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3">
         <v>79</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>23</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>2.4999999999363349</v>
       </c>
-      <c r="K34">
-        <v>5</v>
-      </c>
-      <c r="L34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3">
+        <v>5</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>134</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>44.000000000096414</v>
       </c>
-      <c r="G35">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
         <v>58.4</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>74</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>44</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>0.50000000003706191</v>
       </c>
-      <c r="K35">
-        <v>5</v>
-      </c>
-      <c r="L35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>27</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>142</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>45</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>40.999999999996817</v>
       </c>
-      <c r="G36">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3">
         <v>55.535499999999999</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>73</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>36</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>57.000000000030013</v>
       </c>
-      <c r="K36">
-        <v>5</v>
-      </c>
-      <c r="L36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3">
+        <v>5</v>
+      </c>
+      <c r="M36" s="3">
+        <v>5</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>161</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>16</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>31.333333333273</v>
       </c>
-      <c r="G37">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
         <v>74.415166666666678</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>83</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>0</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>19.666666666677202</v>
       </c>
-      <c r="K37">
-        <v>5</v>
-      </c>
-      <c r="L37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3">
+        <v>5</v>
+      </c>
+      <c r="M37" s="3">
+        <v>5</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>161</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>53</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>34.999999999974989</v>
       </c>
-      <c r="G38">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3">
         <v>67.459000000000003</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>79</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>26</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>27.500000000022741</v>
       </c>
-      <c r="K38">
-        <v>5</v>
-      </c>
-      <c r="L38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K38" s="3"/>
+      <c r="L38" s="3">
+        <v>5</v>
+      </c>
+      <c r="M38" s="3">
+        <v>5</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
       <c r="B39" t="s">
         <v>29</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>172</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>51</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>41.000000000078671</v>
       </c>
-      <c r="G39">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3">
         <v>49.529000000000003</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>83</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>2</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>31.500000000066851</v>
       </c>
-      <c r="K39">
-        <v>5</v>
-      </c>
-      <c r="L39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3">
+        <v>5</v>
+      </c>
+      <c r="M39" s="3">
+        <v>5</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>183</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>17</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>26.833333333324848</v>
       </c>
-      <c r="G40">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3">
         <v>44.823999999999998</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>82</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>15</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>26.16666666665424</v>
       </c>
-      <c r="K40">
-        <v>5</v>
-      </c>
-      <c r="L40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3">
+        <v>5</v>
+      </c>
+      <c r="M40" s="3">
+        <v>5</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>80</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>24</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>59.666666666678339</v>
       </c>
-      <c r="G41">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3">
         <v>68.721499999999992</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>93</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>51</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>20.666666666672882</v>
       </c>
-      <c r="K41">
-        <v>5</v>
-      </c>
-      <c r="L41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K41" s="3"/>
+      <c r="L41" s="3">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>89</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>59</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>59.333333333322571</v>
       </c>
-      <c r="G42">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3">
         <v>96.69383333333333</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>92</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>46</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>25.166666666685838</v>
       </c>
-      <c r="K42">
-        <v>5</v>
-      </c>
-      <c r="L42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K42" s="3"/>
+      <c r="L42" s="3">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>90</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3">
         <v>92.677999999999997</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>90</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>4</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>36.000000000004782</v>
       </c>
-      <c r="K43">
-        <v>5</v>
-      </c>
-      <c r="L43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>136</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>55</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>55.000000000086402</v>
       </c>
-      <c r="G44">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3">
         <v>36.1355</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <v>74</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>35</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>24.500000000045929</v>
       </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-      <c r="L44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>167</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>15</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>2.0000000000322871</v>
       </c>
-      <c r="G45">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
         <v>9.73</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>90</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>22</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>24.166666666649238</v>
       </c>
-      <c r="K45">
-        <v>5</v>
-      </c>
-      <c r="L45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>184</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>23</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>9.3333333332520851</v>
       </c>
-      <c r="G46">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3">
         <v>36.803166666666662</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>85</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>19</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>46.333333333249129</v>
       </c>
-      <c r="K46">
-        <v>5</v>
-      </c>
-      <c r="L46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>45</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>49</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>37.833333333316553</v>
       </c>
-      <c r="G47">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3">
         <v>43.713500000000003</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>94</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>22</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>9.6666666666453693</v>
       </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
-      <c r="L47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K47" s="3"/>
+      <c r="L47" s="3">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>46</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>30</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>39.500000000023761</v>
       </c>
-      <c r="G48">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3">
         <v>42.563000000000002</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>93</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>34</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>10.666666666620589</v>
       </c>
-      <c r="K48">
-        <v>5</v>
-      </c>
-      <c r="L48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K48" s="3"/>
+      <c r="L48" s="3">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>48</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>23</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>34.833333333305632</v>
       </c>
-      <c r="G49">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3">
         <v>43.494500000000002</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>93</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>29</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>28.500000000028649</v>
       </c>
-      <c r="K49">
-        <v>5</v>
-      </c>
-      <c r="L49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K49" s="3"/>
+      <c r="L49" s="3">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>90</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>1.6666666666424139</v>
       </c>
-      <c r="G50">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3">
         <v>45.442166666666672</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>96</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>42</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>29.166666666610581</v>
       </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-      <c r="L50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K50" s="3"/>
+      <c r="L50" s="3">
+        <v>5</v>
+      </c>
+      <c r="M50" s="3">
+        <v>5</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>343</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>40</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>16.333333333409431</v>
       </c>
-      <c r="G51">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
         <v>23.78833333333333</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <v>82</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>37</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>31.333333333303699</v>
       </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
-      <c r="L51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K51" s="3"/>
+      <c r="L51" s="3">
+        <v>5</v>
+      </c>
+      <c r="M51" s="3">
+        <v>5</v>
+      </c>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>34</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>72</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>13</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>59.499999999969759</v>
       </c>
-      <c r="G52">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
         <v>23.714500000000001</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <v>86</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>44</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>36.499999999953161</v>
       </c>
-      <c r="K52">
-        <v>5</v>
-      </c>
-      <c r="L52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>30</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>90</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>0.5000000000336513</v>
       </c>
-      <c r="G53">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3">
         <v>45.436999999999998</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <v>83</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>21</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>0.9999999999956799</v>
       </c>
-      <c r="K53">
-        <v>5</v>
-      </c>
-      <c r="L53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3">
+        <v>5</v>
+      </c>
+      <c r="M53" s="3">
+        <v>5</v>
+      </c>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>102</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>48</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>10.500000000031379</v>
       </c>
-      <c r="G54">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3">
         <v>3.5474999999999999</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <v>86</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>44</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>22.999999999965439</v>
       </c>
-      <c r="K54">
-        <v>5</v>
-      </c>
-      <c r="L54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>113</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>37</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>28.500000000001361</v>
       </c>
-      <c r="G55">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3">
         <v>57.109000000000002</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="3">
         <v>81</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>36</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>23.333333333331439</v>
       </c>
-      <c r="K55">
-        <v>5</v>
-      </c>
-      <c r="L55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K55" s="3"/>
+      <c r="L55" s="3">
+        <v>5</v>
+      </c>
+      <c r="M55" s="3">
+        <v>5</v>
+      </c>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>151</v>
       </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="3">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3">
         <v>38.000000000033651</v>
       </c>
-      <c r="G56">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
         <v>46.265000000000001</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>71</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>32</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>21.50000000005889</v>
       </c>
-      <c r="K56">
-        <v>5</v>
-      </c>
-      <c r="L56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K56" s="3"/>
+      <c r="L56" s="3">
+        <v>5</v>
+      </c>
+      <c r="M56" s="3">
+        <v>5</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
         <v>36</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>151</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>39</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>35.000000000022737</v>
       </c>
-      <c r="G57">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
         <v>18.084</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <v>82</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>9</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>59.499999999983402</v>
       </c>
-      <c r="K57">
-        <v>5</v>
-      </c>
-      <c r="L57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K57" s="3"/>
+      <c r="L57" s="3">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>164</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>51</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>30.500000000088221</v>
       </c>
-      <c r="G58">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
         <v>13.311500000000001</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <v>88</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>56</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
         <v>0.99999999997862687</v>
       </c>
-      <c r="K58">
-        <v>5</v>
-      </c>
-      <c r="L58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K58" s="3"/>
+      <c r="L58" s="3">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
       <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>167</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>16</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>2.9999999999427018</v>
       </c>
-      <c r="H59">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3">
         <v>78</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>1</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="3">
         <v>19.50000000003001</v>
       </c>
-      <c r="K59">
-        <v>5</v>
-      </c>
-      <c r="L59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K59" s="3"/>
+      <c r="L59" s="3">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>167</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>17</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>18.00000000007913</v>
       </c>
-      <c r="H60">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3">
         <v>77</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="3">
         <v>56</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="3">
         <v>2.4999999999772631</v>
       </c>
-      <c r="K60">
-        <v>5</v>
-      </c>
-      <c r="L60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K60" s="3"/>
+      <c r="L60" s="3">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>167</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>36</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>41.500000000009997</v>
       </c>
-      <c r="H61">
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3">
         <v>77</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>58</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>31.50000000008049</v>
       </c>
-      <c r="K61">
-        <v>5</v>
-      </c>
-      <c r="L61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K61" s="3"/>
+      <c r="L61" s="3">
+        <v>5</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>192</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>59</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>35.499999999988177</v>
       </c>
-      <c r="H62">
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3">
         <v>85</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <v>13</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="3">
         <v>54.49999999999136</v>
       </c>
-      <c r="K62">
-        <v>5</v>
-      </c>
-      <c r="L62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K62" s="3"/>
+      <c r="L62" s="3">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>204</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>26</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>32.000000000018652</v>
       </c>
-      <c r="G63">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
         <v>50.852999999999987</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>87</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>13</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="3">
         <v>11.999999999995911</v>
       </c>
-      <c r="K63">
-        <v>5</v>
-      </c>
-      <c r="L63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K63" s="3"/>
+      <c r="L63" s="3">
+        <v>5</v>
+      </c>
+      <c r="M63" s="3">
+        <v>5</v>
+      </c>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>227</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>11</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>17.49999999996362</v>
       </c>
-      <c r="G64">
+      <c r="F64" s="3"/>
+      <c r="G64" s="3">
         <v>60.890833333333333</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <v>90</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>48</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="3">
         <v>24.166666666662881</v>
       </c>
-      <c r="K64">
-        <v>5</v>
-      </c>
-      <c r="L64">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K64" s="3"/>
+      <c r="L64" s="3">
+        <v>5</v>
+      </c>
+      <c r="M64" s="3">
+        <v>5</v>
+      </c>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>230</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>53</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>43.50000000003547</v>
       </c>
-      <c r="G65">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3">
         <v>43.548999999999999</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="3">
         <v>91</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>43</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="3">
         <v>35.999999999974079</v>
       </c>
-      <c r="K65">
-        <v>5</v>
-      </c>
-      <c r="L65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K65" s="3"/>
+      <c r="L65" s="3">
+        <v>5</v>
+      </c>
+      <c r="M65" s="3">
+        <v>5</v>
+      </c>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>28</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>90</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>4.1666666666571928</v>
       </c>
-      <c r="G66">
+      <c r="F66" s="3"/>
+      <c r="G66" s="3">
         <v>36.806166666666662</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <v>94</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="3">
         <v>42</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="3">
         <v>41.833333333277103</v>
       </c>
-      <c r="K66">
-        <v>5</v>
-      </c>
-      <c r="L66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K66" s="3"/>
+      <c r="L66" s="3">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>28</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>116</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>59</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>50.666666666669471</v>
       </c>
-      <c r="G67">
+      <c r="F67" s="3"/>
+      <c r="G67" s="3">
         <v>74.418999999999997</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="3">
         <v>97</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>1</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="3">
         <v>4.4999999999924967</v>
       </c>
-      <c r="K67">
-        <v>5</v>
-      </c>
-      <c r="L67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K67" s="3"/>
+      <c r="L67" s="3">
+        <v>5</v>
+      </c>
+      <c r="M67" s="3">
+        <v>5</v>
+      </c>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>28</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>214</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>56</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>26.166666666667879</v>
       </c>
-      <c r="G68">
+      <c r="F68" s="3"/>
+      <c r="G68" s="3">
         <v>57.113999999999997</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="3">
         <v>98</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="3">
         <v>25</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="3">
         <v>21.16666666669289</v>
       </c>
-      <c r="K68">
-        <v>5</v>
-      </c>
-      <c r="L68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K68" s="3"/>
+      <c r="L68" s="3">
+        <v>5</v>
+      </c>
+      <c r="M68" s="3">
+        <v>5</v>
+      </c>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>28</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>264</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>59</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>45.000000000013642</v>
       </c>
-      <c r="G69">
+      <c r="F69" s="3"/>
+      <c r="G69" s="3">
         <v>23.79</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="3">
         <v>97</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="3">
         <v>23</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="3">
         <v>49.666666666673791</v>
       </c>
-      <c r="K69">
-        <v>5</v>
-      </c>
-      <c r="L69">
-        <v>5</v>
-      </c>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3">
+        <v>5</v>
+      </c>
+      <c r="M69" s="3">
+        <v>5</v>
+      </c>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>